--- a/TestData/SampleTestData.xlsx
+++ b/TestData/SampleTestData.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2145E1-9AB4-461D-A296-5E95F4710702}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>UserName</t>
   </si>
@@ -28,13 +39,163 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Date_Of_Birth</t>
+  </si>
+  <si>
+    <t>Place_Of_Birth</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Shikhar</t>
+  </si>
+  <si>
+    <t>Dhawan</t>
+  </si>
+  <si>
+    <t>1981-12-05</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>1981-04-22</t>
+  </si>
+  <si>
+    <t>CapeTown</t>
+  </si>
+  <si>
+    <t>SouthAfrica</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Kumara</t>
+  </si>
+  <si>
+    <t>Sangakkara</t>
+  </si>
+  <si>
+    <t>1977-10-27</t>
+  </si>
+  <si>
+    <t>Matale</t>
+  </si>
+  <si>
+    <t>Srilanka</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Virat</t>
+  </si>
+  <si>
+    <t>Kohli</t>
+  </si>
+  <si>
+    <t>1988-11-05</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>1987-04-30</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Ravindra</t>
+  </si>
+  <si>
+    <t>Jadeja</t>
+  </si>
+  <si>
+    <t>1988-12-06</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>1982-06-30</t>
+  </si>
+  <si>
+    <t>Burnely</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>McLaren</t>
+  </si>
+  <si>
+    <t>1983-02-09</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,11 +205,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,16 +241,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -86,16 +258,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -110,44 +294,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -174,14 +358,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -208,6 +410,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -219,240 +439,388 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5C8AE5-D835-4919-8DBA-4C80E972908C}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>